--- a/Projeto.xlsx
+++ b/Projeto.xlsx
@@ -422,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,20 +431,21 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>123</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-    </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
+      <c r="A3" t="n">
+        <v>123</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -493,31 +494,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-    </row>
-  </sheetData>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
